--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0B8883EF-0592-EA4F-82DD-340D9AD67165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BB777-A010-714D-B635-97799A1AB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Diabetes" sheetId="2" r:id="rId2"/>
-    <sheet name="Aggregate Statistics" sheetId="3" r:id="rId3"/>
+    <sheet name="Aggregate Statistics" sheetId="3" r:id="rId2"/>
+    <sheet name="Diabetes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId4"/>
+    <pivotCache cacheId="34" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Maximum Deaths</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>Maximum Death Rate</t>
   </si>
   <si>
@@ -232,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -716,13 +713,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -768,7 +765,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2120,7 +2124,7 @@
             <c:numRef>
               <c:f>Diabetes!$H$7:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>8.1499999999999986</c:v>
@@ -2220,7 +2224,7 @@
             <c:numRef>
               <c:f>Diabetes!$I$7:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>31.45</c:v>
@@ -2320,7 +2324,7 @@
             <c:numRef>
               <c:f>Diabetes!$J$7:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16.899999999999999</c:v>
@@ -2420,7 +2424,7 @@
             <c:numRef>
               <c:f>Diabetes!$K$7:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -2496,7 +2500,7 @@
             <c:numRef>
               <c:f>Diabetes!$L$7:$L$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -2572,7 +2576,7 @@
             <c:numRef>
               <c:f>Diabetes!$M$7:$M$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16.899999999999999</c:v>
@@ -2666,6 +2670,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="409755039"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2724,6 +2729,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="111888991"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -2733,7 +2739,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2780,6 +2786,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="156493583"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3482,7 +3489,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaw" refreshedDate="45340.138295949073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1095">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaw" refreshedDate="45340.138295949073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1095" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="clean_data"/>
   </cacheSource>
@@ -14526,7 +14533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A4:O15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -14690,6 +14697,27 @@
     <dataField name="Sum of Deaths" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Average of Death Rate" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="1">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -15144,11 +15172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1095"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15167,10 +15195,10 @@
     <col min="13" max="13" width="65.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -15220,7 +15248,7 @@
         <v>F</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q1" t="str">
         <f>INDEX(D:D,MATCH(MAX(E:E),E:E,0))</f>
@@ -15229,7 +15257,7 @@
       <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="4">
         <f>INDEX(G:G,MATCH(MAX(E:E),E:E,0))</f>
         <v>491.4</v>
       </c>
@@ -15260,7 +15288,7 @@
         <v>7.6</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2">
         <f>MAX(G:G)</f>
@@ -15281,7 +15309,7 @@
         <v>F</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="str">
         <f>INDEX(D:D,MATCH(MAX(G:G),G:G,0))</f>
@@ -15290,7 +15318,7 @@
       <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <f>INDEX(E:E,MATCH(MAX(G:G),G:G,0))</f>
         <v>7050</v>
       </c>
@@ -15321,7 +15349,7 @@
         <v>8.1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <f>MAX(H:H)</f>
@@ -15342,7 +15370,7 @@
         <v>M</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="str">
         <f>INDEX(D:D,MATCH(MAX(H:H),H:H,0))</f>
@@ -15351,7 +15379,7 @@
       <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <f>INDEX(E:E,MATCH(MAX(H:H),H:H,0))</f>
         <v>5632</v>
       </c>
@@ -15382,7 +15410,7 @@
         <v>7.1</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <f>MIN(E:E)</f>
@@ -15403,7 +15431,7 @@
         <v>M</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="str">
         <f>INDEX(D:D,MATCH(MIN(E:E),E:E,0))</f>
@@ -15412,9 +15440,9 @@
       <c r="R4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="5" t="e">
-        <f>IF(INDEX(G:G,MATCH(MIN(E:E),E:E,0))="",NA(),INDEX(G:G,MATCH(MIN(E:E),E:E,0)))</f>
-        <v>#N/A</v>
+      <c r="S4" s="4" t="str">
+        <f>IF(INDEX(G:G,MATCH(MIN(E:E),E:E,0))="","",INDEX(G:G,MATCH(MIN(E:E),E:E,0)))</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -15431,7 +15459,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <f>MIN(G:G)</f>
@@ -15452,7 +15480,7 @@
         <v>F</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="str">
         <f>INDEX(D:D,MATCH(MIN(G:G),G:G,0))</f>
@@ -15461,7 +15489,7 @@
       <c r="R5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f>IF(INDEX(E:E,MATCH(MIN(G:G),G:G,0))="",NA(),INDEX(E:E,MATCH(MIN(G:G),G:G,0)))</f>
         <v>13</v>
       </c>
@@ -15480,7 +15508,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6">
         <f>MIN(H:H)</f>
@@ -15501,7 +15529,7 @@
         <v>F</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="str">
         <f>INDEX(D:D,MATCH(MIN(H:H),H:H,0))</f>
@@ -15510,7 +15538,7 @@
       <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <f>IF(INDEX(E:E,MATCH(MIN(H:H),H:H,0))="",NA(),INDEX(E:E,MATCH(MIN(H:H),H:H,0)))</f>
         <v>15</v>
       </c>
@@ -39971,11 +39999,596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="113.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>8.6187500000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>16.381250000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>15.244444444444444</v>
+      </c>
+      <c r="E2" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>10.419999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>52.3125</v>
+      </c>
+      <c r="C3" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>152.52500000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>141.53125</v>
+      </c>
+      <c r="E3" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>89.674999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>14.95</v>
+      </c>
+      <c r="D4" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>9.5499999999999989</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>8.1333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>28.824999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>13.987500000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>24.106249999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>23.793749999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>13.487500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="C9" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>4.1333333333333329</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>10.445454545454547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>8.5875000000000004</v>
+      </c>
+      <c r="C11" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>31.906250000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>12.259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>2.8</v>
+      </c>
+      <c r="C12" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>10.512500000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>18.162500000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>35.587499999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>16.887499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>86.456249999999983</v>
+      </c>
+      <c r="C14" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>367.59375</v>
+      </c>
+      <c r="D14" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>231.63124999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>111.72499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="C15" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>12.331249999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>18.918749999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>24.450000000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>11.853846153846153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>15.237500000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>43.35</v>
+      </c>
+      <c r="D17" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>27.25</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>17.71875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>6.0666666666666673</v>
+      </c>
+      <c r="C19" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>14.362500000000002</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>90.96875</v>
+      </c>
+      <c r="C20" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>238.07499999999996</v>
+      </c>
+      <c r="D20" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>177.11250000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>93.031249999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>15.436363636363637</v>
+      </c>
+      <c r="D21" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>14.4</v>
+      </c>
+      <c r="E21" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>11.918181818181818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>3.28</v>
+      </c>
+      <c r="C23" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>6.2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>7.8428571428571425</v>
+      </c>
+      <c r="E23" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="3" t="e">
+        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40079,42 +40692,42 @@
       <c r="A7" s="2">
         <v>2007</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>81</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>604</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>382</v>
       </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>468</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>8.1499999999999986</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>31.45</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <v>1555</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>18.349999999999998</v>
       </c>
     </row>
@@ -40122,40 +40735,39 @@
       <c r="A8" s="2">
         <v>2008</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>99</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>645</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>419</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>456</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>9.6000000000000014</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>33.75</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>18.3</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
         <v>16.45</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>1631</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>19.524999999999999</v>
       </c>
     </row>
@@ -40163,38 +40775,36 @@
       <c r="A9" s="2">
         <v>2009</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>103</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>669</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>387</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>519</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>35.150000000000006</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>18.75</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <v>1678</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>20.0625</v>
       </c>
     </row>
@@ -40202,42 +40812,42 @@
       <c r="A10" s="2">
         <v>2010</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>115</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>663</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>406</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>503</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>10.7</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>34.700000000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>17.2</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
         <v>18.149999999999999</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>1711</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>20.1875</v>
       </c>
     </row>
@@ -40245,42 +40855,42 @@
       <c r="A11" s="2">
         <v>2011</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>111</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>717</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>396</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>511</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>10.15</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>37.6</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <v>1770</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>20.750000000000004</v>
       </c>
     </row>
@@ -40288,42 +40898,42 @@
       <c r="A12" s="2">
         <v>2012</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>133</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>717</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>394</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>17</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>532</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>11.95</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>37.549999999999997</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="5">
         <v>16.350000000000001</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>19.350000000000001</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>1808</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="5">
         <v>21.3</v>
       </c>
     </row>
@@ -40331,42 +40941,42 @@
       <c r="A13" s="2">
         <v>2013</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>156</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>710</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>413</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>34</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>27</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>503</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>13.65</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>37.15</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>17</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
         <v>18.2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <v>1843</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>21.499999999999996</v>
       </c>
     </row>
@@ -40374,42 +40984,42 @@
       <c r="A14" s="2">
         <v>2014</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>121</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>716</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>395</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>29</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>520</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>37.349999999999994</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>16.05</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <v>1798</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>20.624999999999996</v>
       </c>
     </row>
@@ -40417,42 +41027,42 @@
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>919</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>5441</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>3192</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>112</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>118</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>4012</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>10.512500000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>35.587499999999999</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>16.887499999999999</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>18.162500000000001</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <v>13794</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="5">
         <v>20.287499999999998</v>
       </c>
     </row>
@@ -40460,568 +41070,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="113.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>8.6187500000000004</v>
-      </c>
-      <c r="C2" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>16.381250000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>15.244444444444444</v>
-      </c>
-      <c r="E2" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>10.419999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>52.3125</v>
-      </c>
-      <c r="C3" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>152.52500000000001</v>
-      </c>
-      <c r="D3" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>141.53125</v>
-      </c>
-      <c r="E3" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>89.674999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>3.6333333333333333</v>
-      </c>
-      <c r="C4" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>14.95</v>
-      </c>
-      <c r="D4" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>9.5499999999999989</v>
-      </c>
-      <c r="E4" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>8.1333333333333329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>28.824999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>13.987500000000002</v>
-      </c>
-      <c r="C8" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>24.106249999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>23.793749999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>13.487500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="C9" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>4.1333333333333329</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>10.445454545454547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>8.5875000000000004</v>
-      </c>
-      <c r="C11" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>31.906250000000004</v>
-      </c>
-      <c r="D11" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>20.149999999999999</v>
-      </c>
-      <c r="E11" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>12.259999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>2.8</v>
-      </c>
-      <c r="C12" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>10.512500000000001</v>
-      </c>
-      <c r="C13" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>18.162500000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>35.587499999999999</v>
-      </c>
-      <c r="E13" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>16.887499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>86.456249999999983</v>
-      </c>
-      <c r="C14" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>367.59375</v>
-      </c>
-      <c r="D14" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>231.63124999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>111.72499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>5.9799999999999995</v>
-      </c>
-      <c r="C15" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>12.331249999999999</v>
-      </c>
-      <c r="D15" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>18.918749999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>24.450000000000003</v>
-      </c>
-      <c r="E16" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>11.853846153846153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>15.237500000000001</v>
-      </c>
-      <c r="C17" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>43.35</v>
-      </c>
-      <c r="D17" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>27.25</v>
-      </c>
-      <c r="E17" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>17.71875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>6.0666666666666673</v>
-      </c>
-      <c r="C19" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>14.362500000000002</v>
-      </c>
-      <c r="D19" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>90.96875</v>
-      </c>
-      <c r="C20" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>238.07499999999996</v>
-      </c>
-      <c r="D20" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>177.11250000000001</v>
-      </c>
-      <c r="E20" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>93.031249999999986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C21" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>15.436363636363637</v>
-      </c>
-      <c r="D21" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>14.4</v>
-      </c>
-      <c r="E21" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>11.918181818181818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C22" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>3.28</v>
-      </c>
-      <c r="C23" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>6.2</v>
-      </c>
-      <c r="D23" s="4">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>7.8428571428571425</v>
-      </c>
-      <c r="E23" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"White Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="4" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Hispanic")), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BB777-A010-714D-B635-97799A1AB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EFCE7C-31D5-BA40-8B1B-816F9BAAB96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
@@ -15175,8 +15175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1095"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40002,7 +40002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView zoomScale="58" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -40588,7 +40588,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EFCE7C-31D5-BA40-8B1B-816F9BAAB96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF75AB6-116D-4E4D-A14F-F476AF5A06F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId4"/>
+    <pivotCache cacheId="37" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -175,16 +175,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Total Sum of Deaths</t>
-  </si>
-  <si>
-    <t>Sum of Deaths</t>
-  </si>
-  <si>
     <t>Average of Death Rate</t>
-  </si>
-  <si>
-    <t>Total Average of Death Rate</t>
   </si>
   <si>
     <t>(Multiple Items)</t>
@@ -196,13 +187,7 @@
     <t>Maximum Death Rate</t>
   </si>
   <si>
-    <t>Maximum Age Adjusted Death Rate</t>
-  </si>
-  <si>
     <t>Minimum Death Rate</t>
-  </si>
-  <si>
-    <t>Minimum Age Adjusted Death Rate</t>
   </si>
   <si>
     <t>Minimum Deaths</t>
@@ -765,7 +750,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1480,37 +1471,38 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$B$4:$B$6</c:f>
+              <c:f>Diabetes!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Deaths - Asian and Pacific Islander</c:v>
+                  <c:v>Asian and Pacific Islander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1542,587 +1534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$B$7:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$C$4:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Deaths - Black Non-Hispanic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$C$7:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>645</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$D$4:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Deaths - Hispanic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$D$7:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$E$4:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Deaths - Not Stated/Unknown</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$E$7:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$F$4:$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Deaths - Other Race/ Ethnicity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$F$7:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$G$4:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Deaths - White Non-Hispanic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$G$7:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D693-1949-B8D8-31BA766DA9FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="111888991"/>
-        <c:axId val="409755039"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diabetes!$H$4:$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Death Rate - Asian and Pacific Islander</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diabetes!$H$7:$H$15</c:f>
+              <c:f>Diabetes!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2156,20 +1568,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000000-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$I$4:$I$6</c:f>
+              <c:f>Diabetes!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Death Rate - Black Non-Hispanic</c:v>
+                  <c:v>Black Non-Hispanic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2177,9 +1589,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2190,7 +1600,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2222,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$I$7:$I$15</c:f>
+              <c:f>Diabetes!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2256,20 +1666,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000001-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$J$4:$J$6</c:f>
+              <c:f>Diabetes!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Death Rate - Hispanic</c:v>
+                  <c:v>Hispanic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2277,9 +1687,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2290,7 +1698,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2322,7 +1730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$J$7:$J$15</c:f>
+              <c:f>Diabetes!$D$6:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2356,20 +1764,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000002-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$K$4:$K$6</c:f>
+              <c:f>Diabetes!$E$4:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Death Rate - Not Stated/Unknown</c:v>
+                  <c:v>Not Stated/Unknown</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2377,9 +1785,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2390,7 +1796,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2422,7 +1828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$K$7:$K$15</c:f>
+              <c:f>Diabetes!$E$6:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2432,20 +1838,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000003-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$L$4:$L$6</c:f>
+              <c:f>Diabetes!$F$4:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Death Rate - Other Race/ Ethnicity</c:v>
+                  <c:v>Other Race/ Ethnicity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2453,9 +1859,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2466,7 +1870,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2498,7 +1902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$L$7:$L$15</c:f>
+              <c:f>Diabetes!$F$6:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2508,20 +1912,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000004-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$M$4:$M$6</c:f>
+              <c:f>Diabetes!$G$4:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Death Rate - White Non-Hispanic</c:v>
+                  <c:v>White Non-Hispanic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2529,9 +1933,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2542,7 +1944,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$7:$A$15</c:f>
+              <c:f>Diabetes!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2574,7 +1976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$M$7:$M$15</c:f>
+              <c:f>Diabetes!$G$6:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2608,7 +2010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D693-1949-B8D8-31BA766DA9FA}"/>
+              <c16:uniqueId val="{00000005-D693-1949-B8D8-31BA766DA9FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2620,10 +2022,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1782461872"/>
-        <c:axId val="156493583"/>
+        <c:axId val="111888991"/>
+        <c:axId val="409755039"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="111888991"/>
@@ -2697,7 +2098,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2732,66 +2133,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="156493583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1782461872"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1782461872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156493583"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -14533,8 +13874,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A4:O15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -14602,7 +13943,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -14639,53 +13980,29 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="-2"/>
+  <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="14">
+  <colItems count="7">
     <i>
       <x/>
-      <x/>
     </i>
-    <i r="1">
+    <i>
       <x v="1"/>
     </i>
-    <i r="1">
+    <i>
       <x v="2"/>
     </i>
-    <i r="1">
+    <i>
       <x v="3"/>
     </i>
-    <i r="1">
+    <i>
       <x v="4"/>
     </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="1">
-      <x v="2"/>
-    </i>
-    <i r="1" i="1">
-      <x v="3"/>
-    </i>
-    <i r="1" i="1">
-      <x v="4"/>
-    </i>
-    <i r="1" i="1">
+    <i>
       <x v="5"/>
     </i>
     <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
       <x/>
     </i>
   </colItems>
@@ -14693,33 +14010,32 @@
     <pageField fld="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Deaths" fld="4" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField name="Average of Death Rate" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="3" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
-      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="1">
+    <format dxfId="2">
+      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="12">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="6">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14731,7 +14047,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14743,7 +14059,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14755,7 +14071,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14767,7 +14083,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14779,83 +14095,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="5"/>
@@ -15173,10 +14417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1095"/>
+  <dimension ref="A1:U1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15199,9 +14443,11 @@
     <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15227,7 +14473,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1">
         <f>MAX(E:E)</f>
@@ -15261,8 +14507,9 @@
         <f>INDEX(G:G,MATCH(MAX(E:E),E:E,0))</f>
         <v>491.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -15288,7 +14535,7 @@
         <v>7.6</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <f>MAX(G:G)</f>
@@ -15322,8 +14569,9 @@
         <f>INDEX(E:E,MATCH(MAX(G:G),G:G,0))</f>
         <v>7050</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -15349,42 +14597,43 @@
         <v>8.1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <f>MAX(H:H)</f>
-        <v>350.7</v>
+        <f>MIN(E:E)</f>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" t="str">
-        <f>INDEX(B:B,MATCH(MAX(H:H),H:H,0))</f>
-        <v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</v>
+        <f>INDEX(B:B,MATCH(MIN(E:E),E:E,0))</f>
+        <v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
       </c>
       <c r="O3" t="str">
-        <f>INDEX(C:C,MATCH(MAX(H:H),H:H,0))</f>
+        <f>INDEX(C:C,MATCH(MIN(E:E),E:E,0))</f>
         <v>M</v>
       </c>
       <c r="P3" t="s">
         <v>3</v>
       </c>
       <c r="Q3" t="str">
-        <f>INDEX(D:D,MATCH(MAX(H:H),H:H,0))</f>
-        <v>White Non-Hispanic</v>
+        <f>INDEX(D:D,MATCH(MIN(E:E),E:E,0))</f>
+        <v>Other Race/ Ethnicity</v>
       </c>
       <c r="R3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="4">
-        <f>INDEX(E:E,MATCH(MAX(H:H),H:H,0))</f>
-        <v>5632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>IF(INDEX(G:G,MATCH(MIN(E:E),E:E,0))="","",INDEX(G:G,MATCH(MIN(E:E),E:E,0)))</f>
+        <v/>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -15410,42 +14659,43 @@
         <v>7.1</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <f>MIN(E:E)</f>
-        <v>5</v>
+        <f>MIN(G:G)</f>
+        <v>2.4</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
       <c r="M4" t="str">
-        <f>INDEX(B:B,MATCH(MIN(E:E),E:E,0))</f>
-        <v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</v>
+        <f>INDEX(B:B,MATCH(MIN(G:G),G:G,0))</f>
+        <v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
       </c>
       <c r="O4" t="str">
-        <f>INDEX(C:C,MATCH(MIN(E:E),E:E,0))</f>
-        <v>M</v>
+        <f>INDEX(C:C,MATCH(MIN(G:G),G:G,0))</f>
+        <v>F</v>
       </c>
       <c r="P4" t="s">
         <v>3</v>
       </c>
       <c r="Q4" t="str">
-        <f>INDEX(D:D,MATCH(MIN(E:E),E:E,0))</f>
-        <v>Other Race/ Ethnicity</v>
+        <f>INDEX(D:D,MATCH(MIN(G:G),G:G,0))</f>
+        <v>Asian and Pacific Islander</v>
       </c>
       <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f>IF(INDEX(G:G,MATCH(MIN(E:E),E:E,0))="","",INDEX(G:G,MATCH(MIN(E:E),E:E,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IF(INDEX(E:E,MATCH(MIN(G:G),G:G,0))="","",INDEX(E:E,MATCH(MIN(G:G),G:G,0)))</f>
+        <v>13</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -15458,43 +14708,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5">
-        <f>MIN(G:G)</f>
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" t="str">
-        <f>INDEX(B:B,MATCH(MIN(G:G),G:G,0))</f>
-        <v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="str">
-        <f>INDEX(C:C,MATCH(MIN(G:G),G:G,0))</f>
-        <v>F</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>INDEX(D:D,MATCH(MIN(G:G),G:G,0))</f>
-        <v>Asian and Pacific Islander</v>
-      </c>
-      <c r="R5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="4">
-        <f>IF(INDEX(E:E,MATCH(MIN(G:G),G:G,0))="",NA(),INDEX(E:E,MATCH(MIN(G:G),G:G,0)))</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -15507,43 +14723,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <f>MIN(H:H)</f>
-        <v>2.5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="str">
-        <f>INDEX(B:B,MATCH(MIN(H:H),H:H,0))</f>
-        <v>Viral Hepatitis (B15-B19)</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="str">
-        <f>INDEX(C:C,MATCH(MIN(H:H),H:H,0))</f>
-        <v>F</v>
-      </c>
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>INDEX(D:D,MATCH(MIN(H:H),H:H,0))</f>
-        <v>Asian and Pacific Islander</v>
-      </c>
-      <c r="R6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="4">
-        <f>IF(INDEX(E:E,MATCH(MIN(H:H),H:H,0))="",NA(),INDEX(E:E,MATCH(MIN(H:H),H:H,0)))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -15569,7 +14751,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -15595,7 +14777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -15621,7 +14803,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -15647,7 +14829,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -15664,7 +14846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -15681,7 +14863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -15707,7 +14889,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -15733,7 +14915,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -15759,7 +14941,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -40003,7 +39185,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40017,19 +39199,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -40496,7 +39678,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="e">
         <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
@@ -40585,22 +39767,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -40612,15 +39794,15 @@
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -40628,441 +39810,235 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8.1499999999999986</v>
+      </c>
+      <c r="C6" s="5">
+        <v>31.45</v>
+      </c>
+      <c r="D6" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>18.349999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B7">
-        <v>81</v>
-      </c>
-      <c r="C7">
-        <v>604</v>
-      </c>
-      <c r="D7">
-        <v>382</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>468</v>
+        <v>2008</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="D7" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>16.45</v>
       </c>
       <c r="H7" s="5">
-        <v>8.1499999999999986</v>
-      </c>
-      <c r="I7" s="5">
-        <v>31.45</v>
-      </c>
-      <c r="J7" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="N7">
-        <v>1555</v>
-      </c>
-      <c r="O7" s="5">
-        <v>18.349999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19.524999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B8">
-        <v>99</v>
-      </c>
-      <c r="C8">
-        <v>645</v>
-      </c>
-      <c r="D8">
-        <v>419</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>456</v>
+        <v>2009</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C8" s="5">
+        <v>35.150000000000006</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>18.75</v>
       </c>
       <c r="H8" s="5">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="I8" s="5">
-        <v>33.75</v>
-      </c>
-      <c r="J8" s="5">
-        <v>18.3</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>16.45</v>
-      </c>
-      <c r="N8">
-        <v>1631</v>
-      </c>
-      <c r="O8" s="5">
-        <v>19.524999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>20.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B9">
-        <v>103</v>
-      </c>
-      <c r="C9">
-        <v>669</v>
-      </c>
-      <c r="D9">
-        <v>387</v>
-      </c>
-      <c r="G9">
-        <v>519</v>
+        <v>2010</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>18.149999999999999</v>
       </c>
       <c r="H9" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I9" s="5">
-        <v>35.150000000000006</v>
-      </c>
-      <c r="J9" s="5">
+        <v>20.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="D10" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>18.75</v>
-      </c>
-      <c r="N9">
-        <v>1678</v>
-      </c>
-      <c r="O9" s="5">
-        <v>20.0625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B10">
-        <v>115</v>
-      </c>
-      <c r="C10">
-        <v>663</v>
-      </c>
-      <c r="D10">
-        <v>406</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>503</v>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>18.600000000000001</v>
       </c>
       <c r="H10" s="5">
-        <v>10.7</v>
-      </c>
-      <c r="I10" s="5">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="J10" s="5">
-        <v>17.2</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="N10">
-        <v>1711</v>
-      </c>
-      <c r="O10" s="5">
-        <v>20.1875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>20.750000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B11">
-        <v>111</v>
-      </c>
-      <c r="C11">
-        <v>717</v>
-      </c>
-      <c r="D11">
-        <v>396</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>511</v>
+        <v>2012</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="C11" s="5">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="D11" s="5">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>19.350000000000001</v>
       </c>
       <c r="H11" s="5">
-        <v>10.15</v>
-      </c>
-      <c r="I11" s="5">
-        <v>37.6</v>
-      </c>
-      <c r="J11" s="5">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N11">
-        <v>1770</v>
-      </c>
-      <c r="O11" s="5">
-        <v>20.750000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12">
-        <v>133</v>
-      </c>
-      <c r="C12">
-        <v>717</v>
-      </c>
-      <c r="D12">
-        <v>394</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="5">
+        <v>13.65</v>
+      </c>
+      <c r="C12" s="5">
+        <v>37.15</v>
+      </c>
+      <c r="D12" s="5">
         <v>17</v>
       </c>
-      <c r="G12">
-        <v>532</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>18.2</v>
       </c>
       <c r="H12" s="5">
-        <v>11.95</v>
-      </c>
-      <c r="I12" s="5">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="J12" s="5">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="N12">
-        <v>1808</v>
-      </c>
-      <c r="O12" s="5">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>21.499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B13">
-        <v>156</v>
-      </c>
-      <c r="C13">
-        <v>710</v>
-      </c>
-      <c r="D13">
-        <v>413</v>
-      </c>
-      <c r="E13">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>27</v>
-      </c>
-      <c r="G13">
-        <v>503</v>
+        <v>2014</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>37.349999999999994</v>
+      </c>
+      <c r="D13" s="5">
+        <v>16.05</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>18.899999999999999</v>
       </c>
       <c r="H13" s="5">
-        <v>13.65</v>
-      </c>
-      <c r="I13" s="5">
-        <v>37.15</v>
-      </c>
-      <c r="J13" s="5">
-        <v>17</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="N13">
-        <v>1843</v>
-      </c>
-      <c r="O13" s="5">
-        <v>21.499999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B14">
-        <v>121</v>
-      </c>
-      <c r="C14">
-        <v>716</v>
-      </c>
-      <c r="D14">
-        <v>395</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>29</v>
-      </c>
-      <c r="G14">
-        <v>520</v>
+        <v>20.624999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10.512500000000001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>35.587499999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.887499999999999</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>18.162500000000001</v>
       </c>
       <c r="H14" s="5">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I14" s="5">
-        <v>37.349999999999994</v>
-      </c>
-      <c r="J14" s="5">
-        <v>16.05</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N14">
-        <v>1798</v>
-      </c>
-      <c r="O14" s="5">
-        <v>20.624999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>919</v>
-      </c>
-      <c r="C15">
-        <v>5441</v>
-      </c>
-      <c r="D15">
-        <v>3192</v>
-      </c>
-      <c r="E15">
-        <v>112</v>
-      </c>
-      <c r="F15">
-        <v>118</v>
-      </c>
-      <c r="G15">
-        <v>4012</v>
-      </c>
-      <c r="H15" s="5">
-        <v>10.512500000000001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>35.587499999999999</v>
-      </c>
-      <c r="J15" s="5">
-        <v>16.887499999999999</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
-        <v>18.162500000000001</v>
-      </c>
-      <c r="N15">
-        <v>13794</v>
-      </c>
-      <c r="O15" s="5">
         <v>20.287499999999998</v>
       </c>
     </row>

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF75AB6-116D-4E4D-A14F-F476AF5A06F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0017D-C3F4-4B4A-A40A-8B4FFDEDA73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId4"/>
+    <pivotCache cacheId="40" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -750,13 +750,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -13874,7 +13868,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A4:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -14014,7 +14008,7 @@
     <dataField name="Average of Death Rate" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14024,7 +14018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39770,7 +39764,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0017D-C3F4-4B4A-A40A-8B4FFDEDA73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2910BA44-9A9A-C342-96DC-99532A136D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId4"/>
+    <pivotCache cacheId="42" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -13868,7 +13868,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A4:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaw/Desktop/datac/3-spreadsheet-analysis-shaw2065/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2910BA44-9A9A-C342-96DC-99532A136D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BAD683-ACB7-F045-A90E-4BE899EAAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="clean_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Aggregate Statistics" sheetId="3" r:id="rId2"/>
-    <sheet name="Diabetes" sheetId="2" r:id="rId3"/>
+    <sheet name="DescriptiveStatistics-Min&amp;Max" sheetId="1" r:id="rId1"/>
+    <sheet name="AggregateStatistics-Mean&amp;Medium" sheetId="3" r:id="rId2"/>
+    <sheet name="Diabetes-Mean&amp;Sum" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -209,6 +231,42 @@
   </si>
   <si>
     <t>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</t>
+  </si>
+  <si>
+    <t>Median Death Rate (Asian &amp; Pacific Islander)</t>
+  </si>
+  <si>
+    <t>SD Death Rate (Asian &amp; Pacific Islander)</t>
+  </si>
+  <si>
+    <t>Median Death Rate (White Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>SD Death Rate (White Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Median Death Rate (Black Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>SD Death Rate (Black Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Asian and Pacific Islanders)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (White Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Black Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Hispanic)</t>
+  </si>
+  <si>
+    <t>Median Death Rate (Hispanic)</t>
+  </si>
+  <si>
+    <t>SD Death Rate (Hispanic)</t>
   </si>
 </sst>
 </file>
@@ -783,8 +841,2286 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Death Rate (Asian &amp; Pacific Islander)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All Other Causes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alzheimer's Disease (G30)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aortic Aneurysm and Dissection (I71)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assault (Homicide: Y87.1, X85-Y09)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atherosclerosis (I70)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cerebrovascular Disease (Stroke: I60-I69)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Certain Conditions originating in the Perinatal Period (P00-P96)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chronic Liver Disease and Cirrhosis (K70, K73)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chronic Lower Respiratory Diseases (J40-J47)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Congenital Malformations, Deformations, and Chromosomal Abnormalities (Q00-Q99)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes Mellitus (E10-E14)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Essential Hypertension and Renal Diseases (I10, I12)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Human Immunodeficiency Virus Disease (HIV: B20-B24)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Influenza (Flu) and Pneumonia (J09-J18)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insitu or Benign / Uncertain Neoplasms (D00-D48)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Intentional Self-Harm (Suicide: X60-X84, Y87.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Malignant Neoplasms (Cancer: C00-C97)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mental and Behavioral Disorders due to Accidental Poisoning and Other Psychoactive Substance Use (F11-F16, F18-F19, X40-X42, X44)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mental and Behavioral Disorders due to Use of Alcohol (F10)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Parkinson's Disease (G20)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tuberculosis (A16-A19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.6187500000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.987500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.512500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.456249999999983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.237500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0666666666666673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.96875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB05-AD49-A154-B9B406B4ADCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Death Rate (White Non-Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16.381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.106249999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.906250000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.162500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>367.59375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.331249999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.362500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>238.07499999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.436363636363637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB05-AD49-A154-B9B406B4ADCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Death Rate (Black Non-Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$J$2:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15.244444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.53125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.793749999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.587499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>231.63124999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.918749999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177.11250000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8428571428571425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB05-AD49-A154-B9B406B4ADCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Death Rate (Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$N$2:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.487500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.445454545454547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.887499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.853846153846153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.031249999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB05-AD49-A154-B9B406B4ADCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1620726543"/>
+        <c:axId val="1302010624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1620726543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302010624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302010624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620726543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Death Rate (Asian &amp; Pacific Islander)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All Other Causes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alzheimer's Disease (G30)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aortic Aneurysm and Dissection (I71)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assault (Homicide: Y87.1, X85-Y09)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atherosclerosis (I70)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cerebrovascular Disease (Stroke: I60-I69)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Certain Conditions originating in the Perinatal Period (P00-P96)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chronic Liver Disease and Cirrhosis (K70, K73)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chronic Lower Respiratory Diseases (J40-J47)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Congenital Malformations, Deformations, and Chromosomal Abnormalities (Q00-Q99)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes Mellitus (E10-E14)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Essential Hypertension and Renal Diseases (I10, I12)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Human Immunodeficiency Virus Disease (HIV: B20-B24)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Influenza (Flu) and Pneumonia (J09-J18)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insitu or Benign / Uncertain Neoplasms (D00-D48)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Intentional Self-Harm (Suicide: X60-X84, Y87.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Malignant Neoplasms (Cancer: C00-C97)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mental and Behavioral Disorders due to Accidental Poisoning and Other Psychoactive Substance Use (F11-F16, F18-F19, X40-X42, X44)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mental and Behavioral Disorders due to Use of Alcohol (F10)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Parkinson's Disease (G20)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tuberculosis (A16-A19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9AF-3E42-9E10-382E2CB79397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Death Rate (White Non-Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All Other Causes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alzheimer's Disease (G30)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aortic Aneurysm and Dissection (I71)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assault (Homicide: Y87.1, X85-Y09)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atherosclerosis (I70)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cerebrovascular Disease (Stroke: I60-I69)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Certain Conditions originating in the Perinatal Period (P00-P96)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chronic Liver Disease and Cirrhosis (K70, K73)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chronic Lower Respiratory Diseases (J40-J47)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Congenital Malformations, Deformations, and Chromosomal Abnormalities (Q00-Q99)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes Mellitus (E10-E14)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Essential Hypertension and Renal Diseases (I10, I12)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Human Immunodeficiency Virus Disease (HIV: B20-B24)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Influenza (Flu) and Pneumonia (J09-J18)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insitu or Benign / Uncertain Neoplasms (D00-D48)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Intentional Self-Harm (Suicide: X60-X84, Y87.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Malignant Neoplasms (Cancer: C00-C97)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mental and Behavioral Disorders due to Accidental Poisoning and Other Psychoactive Substance Use (F11-F16, F18-F19, X40-X42, X44)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mental and Behavioral Disorders due to Use of Alcohol (F10)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Parkinson's Disease (G20)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tuberculosis (A16-A19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>344.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>237.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9AF-3E42-9E10-382E2CB79397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Death Rate (Black Non-Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All Other Causes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alzheimer's Disease (G30)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aortic Aneurysm and Dissection (I71)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assault (Homicide: Y87.1, X85-Y09)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atherosclerosis (I70)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cerebrovascular Disease (Stroke: I60-I69)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Certain Conditions originating in the Perinatal Period (P00-P96)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chronic Liver Disease and Cirrhosis (K70, K73)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chronic Lower Respiratory Diseases (J40-J47)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Congenital Malformations, Deformations, and Chromosomal Abnormalities (Q00-Q99)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes Mellitus (E10-E14)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Essential Hypertension and Renal Diseases (I10, I12)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Human Immunodeficiency Virus Disease (HIV: B20-B24)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Influenza (Flu) and Pneumonia (J09-J18)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insitu or Benign / Uncertain Neoplasms (D00-D48)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Intentional Self-Harm (Suicide: X60-X84, Y87.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Malignant Neoplasms (Cancer: C00-C97)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mental and Behavioral Disorders due to Accidental Poisoning and Other Psychoactive Substance Use (F11-F16, F18-F19, X40-X42, X44)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mental and Behavioral Disorders due to Use of Alcohol (F10)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Parkinson's Disease (G20)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tuberculosis (A16-A19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$K$2:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9AF-3E42-9E10-382E2CB79397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Death Rate (Hispanic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Accidents Except Drug Posioning (V01-X39, X43, X45-X59, Y85-Y86)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>All Other Causes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alzheimer's Disease (G30)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aortic Aneurysm and Dissection (I71)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Assault (Homicide: Y87.1, X85-Y09)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atherosclerosis (I70)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cerebrovascular Disease (Stroke: I60-I69)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Certain Conditions originating in the Perinatal Period (P00-P96)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chronic Liver Disease and Cirrhosis (K70, K73)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Chronic Lower Respiratory Diseases (J40-J47)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Congenital Malformations, Deformations, and Chromosomal Abnormalities (Q00-Q99)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes Mellitus (E10-E14)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseases of Heart (I00-I09, I11, I13, I20-I51)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Essential Hypertension and Renal Diseases (I10, I12)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Human Immunodeficiency Virus Disease (HIV: B20-B24)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Influenza (Flu) and Pneumonia (J09-J18)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insitu or Benign / Uncertain Neoplasms (D00-D48)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Intentional Self-Harm (Suicide: X60-X84, Y87.0)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Malignant Neoplasms (Cancer: C00-C97)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mental and Behavioral Disorders due to Accidental Poisoning and Other Psychoactive Substance Use (F11-F16, F18-F19, X40-X42, X44)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Mental and Behavioral Disorders due to Use of Alcohol (F10)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nephritis, Nephrotic Syndrome and Nephrisis (N00-N07, N17-N19, N25-N27)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Septicemia (A40-A41)' 'Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Viral Hepatitis (B15-B19)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Parkinson's Disease (G20)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tuberculosis (A16-A19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AggregateStatistics-Mean&amp;Medium'!$O$2:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9AF-3E42-9E10-382E2CB79397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1301537856"/>
+        <c:axId val="995480992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301537856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="995480992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="995480992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301537856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[clean_data.xlsx]Diabetes!PivotTable5</c:name>
+    <c:name>[clean_data.xlsx]Diabetes-Mean&amp;Sum!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1473,7 +3809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$B$4:$B$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1496,7 +3832,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1528,7 +3864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$B$6:$B$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1571,7 +3907,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$C$4:$C$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1594,7 +3930,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1626,7 +3962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$C$6:$C$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1669,7 +4005,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$D$4:$D$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1692,7 +4028,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1724,7 +4060,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$D$6:$D$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$D$6:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1767,7 +4103,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$E$4:$E$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$E$4:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1790,7 +4126,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1822,7 +4158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$E$6:$E$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$E$6:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1841,7 +4177,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$F$4:$F$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$F$4:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1864,7 +4200,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1896,7 +4232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$F$6:$F$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$F$6:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1915,7 +4251,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Diabetes!$G$4:$G$5</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$G$4:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1938,7 +4274,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Diabetes!$A$6:$A$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1970,7 +4306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Diabetes!$G$6:$G$14</c:f>
+              <c:f>'Diabetes-Mean&amp;Sum'!$G$6:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2266,7 +4602,1097 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2786,6 +6212,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>767203</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1923BF-51A0-321F-A35A-9E30AF0E1C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>37171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>804375</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FEFF05-F010-45EF-BB65-AF382FF079F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -2826,7 +6329,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaw" refreshedDate="45340.138295949073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1095" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="clean_data"/>
+    <worksheetSource ref="A1:H1048576" sheet="DescriptiveStatistics-Min&amp;Max"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Year" numFmtId="0">
@@ -13868,7 +17371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A4:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -14413,7 +17916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1095"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -39176,22 +42679,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="43" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="113.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -39199,563 +42714,1848 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A2,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A2, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>8.6187500000000004</v>
       </c>
-      <c r="C2" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5685842403939212</v>
+      </c>
+      <c r="E2" s="3">
+        <f>ABS(B2 - C2)</f>
+        <v>0.33124999999999893</v>
+      </c>
+      <c r="F2" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A2,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A2, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>16.381250000000001</v>
       </c>
-      <c r="D2" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>16.3</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.3926026832998728</v>
+      </c>
+      <c r="I2" s="3">
+        <f>ABS(F2-G2)</f>
+        <v>8.1250000000000711E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A2,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A2, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>15.244444444444444</v>
       </c>
-      <c r="E2" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A2,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A2, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>17.2</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.4827756778337422</v>
+      </c>
+      <c r="M2" s="3">
+        <f>ABS(J2-K2)</f>
+        <v>1.9555555555555557</v>
+      </c>
+      <c r="N2" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A2,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A2, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>10.419999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>11.6</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A2) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>5.2384839682597368</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>ABS(N2-O2)</f>
+        <v>1.1800000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A3,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A3, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>52.3125</v>
       </c>
-      <c r="C3" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C3" s="3" cm="1">
+        <f t="array" ref="C3">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" cm="1">
+        <f t="array" ref="D3">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>11.458963013001345</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E27" si="0">ABS(B3 - C3)</f>
+        <v>1.3125</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A3,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A3, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>152.52500000000001</v>
       </c>
-      <c r="D3" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G3" s="3" cm="1">
+        <f t="array" ref="G3">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>156.94999999999999</v>
+      </c>
+      <c r="H3" s="3" cm="1">
+        <f t="array" ref="H3">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>23.615630417162318</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I27" si="1">ABS(F3-G3)</f>
+        <v>4.4249999999999829</v>
+      </c>
+      <c r="J3" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A3,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A3, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>141.53125</v>
       </c>
-      <c r="E3" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A3,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A3, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K3" s="3" cm="1">
+        <f t="array" ref="K3">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>143.85</v>
+      </c>
+      <c r="L3" s="3" cm="1">
+        <f t="array" ref="L3">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>13.211596862857522</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M27" si="2">ABS(J3-K3)</f>
+        <v>2.3187499999999943</v>
+      </c>
+      <c r="N3" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A3,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A3, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>89.674999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O3" s="3" cm="1">
+        <f t="array" ref="O3">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>90.1</v>
+      </c>
+      <c r="P3" s="3" cm="1">
+        <f t="array" ref="P3">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A3) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>12.047821379818012</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q27" si="3">ABS(N3-O3)</f>
+        <v>0.42499999999999716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A4,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A4, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>3.6333333333333333</v>
       </c>
-      <c r="C4" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C4" s="3" cm="1">
+        <f t="array" ref="C4">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="3" cm="1">
+        <f t="array" ref="D4">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.98149545762236445</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666687</v>
+      </c>
+      <c r="F4" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A4,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A4, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>14.95</v>
       </c>
-      <c r="D4" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G4" s="3" cm="1">
+        <f t="array" ref="G4">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" cm="1">
+        <f t="array" ref="H4">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.0872624439488012</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="J4" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A4,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A4, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>9.5499999999999989</v>
       </c>
-      <c r="E4" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A4,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A4, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K4" s="3" cm="1">
+        <f t="array" ref="K4">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>9.35</v>
+      </c>
+      <c r="L4" s="3" cm="1">
+        <f t="array" ref="L4">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.6404267737390805</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="N4" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A4,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A4, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>8.1333333333333329</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3" cm="1">
+        <f t="array" ref="O4">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="P4" s="3" cm="1">
+        <f t="array" ref="P4">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A4) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5982045082453937</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31666666666666643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A5,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A5, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C5" s="3" t="e" cm="1">
+        <f t="array" ref="C5">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D5" s="3" t="e" cm="1">
+        <f t="array" ref="D5">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A5,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A5, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A5,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A5, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="3" t="e" cm="1">
+        <f t="array" ref="G5">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="3" t="e" cm="1">
+        <f t="array" ref="H5">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A5,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A5, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="3" t="e" cm="1">
+        <f t="array" ref="K5">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="3" t="e" cm="1">
+        <f t="array" ref="L5">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A5,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A5, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="3" t="e" cm="1">
+        <f t="array" ref="O5">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="3" t="e" cm="1">
+        <f t="array" ref="P5">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A5) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A6,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A6, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C6" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C6" s="3" t="e" cm="1">
+        <f t="array" ref="C6">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D6" s="3" t="e" cm="1">
+        <f t="array" ref="D6">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A6,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A6, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="3" t="e" cm="1">
+        <f t="array" ref="G6">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="3" t="e" cm="1">
+        <f t="array" ref="H6">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A6,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A6, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>28.824999999999999</v>
       </c>
-      <c r="E6" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A6,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A6, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K6" s="3" cm="1">
+        <f t="array" ref="K6">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>30.6</v>
+      </c>
+      <c r="L6" s="3" cm="1">
+        <f t="array" ref="L6">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>5.4033719630827353</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7750000000000021</v>
+      </c>
+      <c r="N6" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A6,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A6, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O6" s="3" cm="1">
+        <f t="array" ref="O6">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>10.5</v>
+      </c>
+      <c r="P6" s="3" t="e" cm="1">
+        <f t="array" ref="P6">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A6) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A7,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A7, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C7" s="3" t="e" cm="1">
+        <f t="array" ref="C7">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D7" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D7" s="3" t="e" cm="1">
+        <f t="array" ref="D7">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A7,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A7, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A7,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A7, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="3" t="e" cm="1">
+        <f t="array" ref="G7">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="3" t="e" cm="1">
+        <f t="array" ref="H7">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A7,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A7, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="3" t="e" cm="1">
+        <f t="array" ref="K7">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="3" t="e" cm="1">
+        <f t="array" ref="L7">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A7,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A7, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="3" t="e" cm="1">
+        <f t="array" ref="O7">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="3" t="e" cm="1">
+        <f t="array" ref="P7">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A7) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A8,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A8, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>13.987500000000002</v>
       </c>
-      <c r="C8" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C8" s="3" cm="1">
+        <f t="array" ref="C8">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>13.45</v>
+      </c>
+      <c r="D8" s="3" cm="1">
+        <f t="array" ref="D8">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5268887325457339</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5375000000000032</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A8,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A8, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>24.106249999999999</v>
       </c>
-      <c r="D8" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G8" s="3" cm="1">
+        <f t="array" ref="G8">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="H8" s="3" cm="1">
+        <f t="array" ref="H8">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.9294311706997931</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30625000000000213</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A8,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A8, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>23.793749999999999</v>
       </c>
-      <c r="E8" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A8,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A8, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K8" s="3" cm="1">
+        <f t="array" ref="K8">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>24.5</v>
+      </c>
+      <c r="L8" s="3" cm="1">
+        <f t="array" ref="L8">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5916452303507826</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70625000000000071</v>
+      </c>
+      <c r="N8" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A8,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A8, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>13.487500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" cm="1">
+        <f t="array" ref="O8">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>13.15</v>
+      </c>
+      <c r="P8" s="3" cm="1">
+        <f t="array" ref="P8">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A8) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.8938056922503899</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33750000000000036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A9,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A9, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>3.4000000000000004</v>
       </c>
-      <c r="C9" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C9" s="3" cm="1">
+        <f t="array" ref="C9">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="D9" s="3" cm="1">
+        <f t="array" ref="D9">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.28284271247461895</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A9,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A9, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G9" s="3" t="e" cm="1">
+        <f t="array" ref="G9">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A9,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A9, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="H9" s="3" t="e" cm="1">
+        <f t="array" ref="H9">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A9,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A9, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="3" t="e" cm="1">
+        <f t="array" ref="K9">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="3" t="e" cm="1">
+        <f t="array" ref="L9">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A9,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A9, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="3" t="e" cm="1">
+        <f t="array" ref="O9">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="3" t="e" cm="1">
+        <f t="array" ref="P9">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A9) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A10,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A10, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>4.1333333333333329</v>
       </c>
-      <c r="C10" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C10" s="3" cm="1">
+        <f t="array" ref="C10">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>3.7</v>
+      </c>
+      <c r="D10" s="3" cm="1">
+        <f t="array" ref="D10">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.91796877216312234</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333268</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A10,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A10, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G10" s="3" t="e" cm="1">
+        <f t="array" ref="G10">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A10,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A10, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="H10" s="3" t="e" cm="1">
+        <f t="array" ref="H10">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A10,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A10, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="3" t="e" cm="1">
+        <f t="array" ref="K10">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="3" t="e" cm="1">
+        <f t="array" ref="L10">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A10,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A10, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>10.445454545454547</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" cm="1">
+        <f t="array" ref="O10">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>12.2</v>
+      </c>
+      <c r="P10" s="3" cm="1">
+        <f t="array" ref="P10">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A10) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>3.7697118288706419</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7545454545454522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A11,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A11, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>8.5875000000000004</v>
       </c>
-      <c r="C11" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C11" s="3" cm="1">
+        <f t="array" ref="C11">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D11" s="3" cm="1">
+        <f t="array" ref="D11">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>3.6941169445484552</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78749999999999964</v>
+      </c>
+      <c r="F11" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A11,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A11, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>31.906250000000004</v>
       </c>
-      <c r="D11" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G11" s="3" cm="1">
+        <f t="array" ref="G11">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H11" s="3" cm="1">
+        <f t="array" ref="H11">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.0014112093942895</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79374999999999929</v>
+      </c>
+      <c r="J11" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A11,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A11, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>20.149999999999999</v>
       </c>
-      <c r="E11" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A11,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A11, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K11" s="3" cm="1">
+        <f t="array" ref="K11">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>20.45</v>
+      </c>
+      <c r="L11" s="3" cm="1">
+        <f t="array" ref="L11">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.6590725200089511</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="N11" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A11,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A11, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>12.259999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3" cm="1">
+        <f t="array" ref="O11">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>12.7</v>
+      </c>
+      <c r="P11" s="3" cm="1">
+        <f t="array" ref="P11">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A11) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.4019374349194793</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.44000000000000128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A12,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A12, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>2.8</v>
       </c>
-      <c r="C12" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C12" s="3" cm="1">
+        <f t="array" ref="C12">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.8</v>
+      </c>
+      <c r="D12" s="3" t="e" cm="1">
+        <f t="array" ref="D12">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A12,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A12, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A12,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A12, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="G12" s="3" t="e" cm="1">
+        <f t="array" ref="G12">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="e" cm="1">
+        <f t="array" ref="H12">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A12,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A12, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="3" t="e" cm="1">
+        <f t="array" ref="K12">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="3" t="e" cm="1">
+        <f t="array" ref="L12">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A12,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A12, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="3" t="e" cm="1">
+        <f t="array" ref="O12">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="3" t="e" cm="1">
+        <f t="array" ref="P12">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A12) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A13,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A13, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>10.512500000000001</v>
       </c>
-      <c r="C13" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C13" s="3" cm="1">
+        <f t="array" ref="C13">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>9.9</v>
+      </c>
+      <c r="D13" s="3" cm="1">
+        <f t="array" ref="D13">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5635587243777564</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000071</v>
+      </c>
+      <c r="F13" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A13,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A13, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>18.162500000000001</v>
       </c>
-      <c r="D13" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G13" s="3" cm="1">
+        <f t="array" ref="G13">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>17.95</v>
+      </c>
+      <c r="H13" s="3" cm="1">
+        <f t="array" ref="H13">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.1850629281556215</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21250000000000213</v>
+      </c>
+      <c r="J13" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A13,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A13, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>35.587499999999999</v>
       </c>
-      <c r="E13" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A13,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A13, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K13" s="3" cm="1">
+        <f t="array" ref="K13">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>36.15</v>
+      </c>
+      <c r="L13" s="3" cm="1">
+        <f t="array" ref="L13">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.9172761268004788</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
+      <c r="N13" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A13,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A13, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>16.887499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3" cm="1">
+        <f t="array" ref="O13">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>16.55</v>
+      </c>
+      <c r="P13" s="3" cm="1">
+        <f t="array" ref="P13">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A13) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.0544350778181337</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33749999999999858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A14,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A14, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>86.456249999999983</v>
       </c>
-      <c r="C14" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C14" s="3" cm="1">
+        <f t="array" ref="C14">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>85.55</v>
+      </c>
+      <c r="D14" s="3" cm="1">
+        <f t="array" ref="D14">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>13.448319287802121</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90624999999998579</v>
+      </c>
+      <c r="F14" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A14,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A14, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>367.59375</v>
       </c>
-      <c r="D14" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G14" s="3" cm="1">
+        <f t="array" ref="G14">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>344.6</v>
+      </c>
+      <c r="H14" s="3" cm="1">
+        <f t="array" ref="H14">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>62.901907430008372</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>22.993749999999977</v>
+      </c>
+      <c r="J14" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A14,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A14, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>231.63124999999999</v>
       </c>
-      <c r="E14" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A14,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A14, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K14" s="3" cm="1">
+        <f t="array" ref="K14">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>226.8</v>
+      </c>
+      <c r="L14" s="3" cm="1">
+        <f t="array" ref="L14">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>16.361610301760241</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8312499999999829</v>
+      </c>
+      <c r="N14" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A14,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A14, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>111.72499999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" cm="1">
+        <f t="array" ref="O14">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>110.35</v>
+      </c>
+      <c r="P14" s="3" cm="1">
+        <f t="array" ref="P14">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A14) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>8.5436526146607807</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A15,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A15, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>5.9799999999999995</v>
       </c>
-      <c r="C15" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C15" s="3" cm="1">
+        <f t="array" ref="C15">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" cm="1">
+        <f t="array" ref="D15">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.3707140996054388</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A15,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A15, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>12.331249999999999</v>
       </c>
-      <c r="D15" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G15" s="3" cm="1">
+        <f t="array" ref="G15">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>11.95</v>
+      </c>
+      <c r="H15" s="3" cm="1">
+        <f t="array" ref="H15">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.813548547277783</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38124999999999964</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A15,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A15, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>18.918749999999999</v>
       </c>
-      <c r="E15" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A15,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A15, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K15" s="3" cm="1">
+        <f t="array" ref="K15">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="L15" s="3" cm="1">
+        <f t="array" ref="L15">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.7503257382838782</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71874999999999645</v>
+      </c>
+      <c r="N15" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A15,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A15, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>7.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" cm="1">
+        <f t="array" ref="O15">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" cm="1">
+        <f t="array" ref="P15">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A15) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.94112394811432798</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A16,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A16, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C16" s="3" t="e" cm="1">
+        <f t="array" ref="C16">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D16" s="3" t="e" cm="1">
+        <f t="array" ref="D16">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A16,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A16, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="3" t="e" cm="1">
+        <f t="array" ref="G16">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="3" t="e" cm="1">
+        <f t="array" ref="H16">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A16,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A16, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>24.450000000000003</v>
       </c>
-      <c r="E16" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A16,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A16, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K16" s="3" cm="1">
+        <f t="array" ref="K16">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>23.15</v>
+      </c>
+      <c r="L16" s="3" cm="1">
+        <f t="array" ref="L16">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>11.168348132109784</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000043</v>
+      </c>
+      <c r="N16" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A16,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A16, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>11.853846153846153</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3" cm="1">
+        <f t="array" ref="O16">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>9.6</v>
+      </c>
+      <c r="P16" s="3" cm="1">
+        <f t="array" ref="P16">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A16) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>5.1222741343755063</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2538461538461529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A17,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A17, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>15.237500000000001</v>
       </c>
-      <c r="C17" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C17" s="3" cm="1">
+        <f t="array" ref="C17">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>14.3</v>
+      </c>
+      <c r="D17" s="3" cm="1">
+        <f t="array" ref="D17">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.7020671099487261</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="F17" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A17,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A17, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>43.35</v>
       </c>
-      <c r="D17" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G17" s="3" cm="1">
+        <f t="array" ref="G17">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>43.5</v>
+      </c>
+      <c r="H17" s="3" cm="1">
+        <f t="array" ref="H17">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>3.7767711077056285</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A17,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A17, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>27.25</v>
       </c>
-      <c r="E17" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A17,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A17, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K17" s="3" cm="1">
+        <f t="array" ref="K17">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>27.1</v>
+      </c>
+      <c r="L17" s="3" cm="1">
+        <f t="array" ref="L17">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.0906139449134709</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="N17" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A17,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A17, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>17.71875</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" cm="1">
+        <f t="array" ref="O17">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P17" s="3" cm="1">
+        <f t="array" ref="P17">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A17) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.2786548921946583</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31875000000000142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A18,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A18, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C18" s="3" t="e" cm="1">
+        <f t="array" ref="C18">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D18" s="3" t="e" cm="1">
+        <f t="array" ref="D18">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E18" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A18,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A18, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A18,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A18, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="3" t="e" cm="1">
+        <f t="array" ref="G18">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="3" t="e" cm="1">
+        <f t="array" ref="H18">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A18,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A18, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="3" t="e" cm="1">
+        <f t="array" ref="K18">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="3" t="e" cm="1">
+        <f t="array" ref="L18">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A18,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A18, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="3" t="e" cm="1">
+        <f t="array" ref="O18">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="3" t="e" cm="1">
+        <f t="array" ref="P18">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A18) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A19,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A19, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>6.0666666666666673</v>
       </c>
-      <c r="C19" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C19" s="3" cm="1">
+        <f t="array" ref="C19">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" cm="1">
+        <f t="array" ref="D19">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.1019265539250469</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6666666666667318E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A19,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A19, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>14.362500000000002</v>
       </c>
-      <c r="D19" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G19" s="3" cm="1">
+        <f t="array" ref="G19">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>14.35</v>
+      </c>
+      <c r="H19" s="3" cm="1">
+        <f t="array" ref="H19">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.71501748230375428</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2500000000002842E-2</v>
+      </c>
+      <c r="J19" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A19,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A19, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A19,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A19, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K19" s="3" t="e" cm="1">
+        <f t="array" ref="K19">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="L19" s="3" t="e" cm="1">
+        <f t="array" ref="L19">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A19,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A19, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="3" t="e" cm="1">
+        <f t="array" ref="O19">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="3" t="e" cm="1">
+        <f t="array" ref="P19">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A19) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A20,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A20, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>90.96875</v>
       </c>
-      <c r="C20" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C20" s="3" cm="1">
+        <f t="array" ref="C20">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>87.6</v>
+      </c>
+      <c r="D20" s="3" cm="1">
+        <f t="array" ref="D20">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>17.277103104012145</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3687500000000057</v>
+      </c>
+      <c r="F20" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A20,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A20, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>238.07499999999996</v>
       </c>
-      <c r="D20" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G20" s="3" cm="1">
+        <f t="array" ref="G20">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>237.85</v>
+      </c>
+      <c r="H20" s="3" cm="1">
+        <f t="array" ref="H20">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>9.0913512013708218</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22499999999996589</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A20,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A20, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>177.11250000000001</v>
       </c>
-      <c r="E20" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A20,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A20, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K20" s="3" cm="1">
+        <f t="array" ref="K20">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>178.1</v>
+      </c>
+      <c r="L20" s="3" cm="1">
+        <f t="array" ref="L20">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>6.8698253252903028</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98749999999998295</v>
+      </c>
+      <c r="N20" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A20,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A20, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>93.031249999999986</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" cm="1">
+        <f t="array" ref="O20">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>92.3</v>
+      </c>
+      <c r="P20" s="3" cm="1">
+        <f t="array" ref="P20">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A20) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>5.4515708745278184</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73124999999998863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A21,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A21, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C21" s="3" t="e" cm="1">
+        <f t="array" ref="C21">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="3" t="e" cm="1">
+        <f t="array" ref="D21">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A21,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A21, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>15.436363636363637</v>
       </c>
-      <c r="D21" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G21" s="3" cm="1">
+        <f t="array" ref="G21">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H21" s="3" cm="1">
+        <f t="array" ref="H21">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>6.5710383848023159</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4636363636363612</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A21,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A21, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>14.4</v>
       </c>
-      <c r="E21" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A21,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A21, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K21" s="3" cm="1">
+        <f t="array" ref="K21">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>15.8</v>
+      </c>
+      <c r="L21" s="3" cm="1">
+        <f t="array" ref="L21">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>5.5344376408086839</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="N21" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A21,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A21, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>11.918181818181818</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" cm="1">
+        <f t="array" ref="O21">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>12.9</v>
+      </c>
+      <c r="P21" s="3" cm="1">
+        <f t="array" ref="P21">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A21) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>4.8141080548359465</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.98181818181818237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A22,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A22, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C22" s="3" t="e" cm="1">
+        <f t="array" ref="C22">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D22" s="3" t="e" cm="1">
+        <f t="array" ref="D22">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E22" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A22,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A22, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A22,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A22, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="3" t="e" cm="1">
+        <f t="array" ref="G22">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="3" t="e" cm="1">
+        <f t="array" ref="H22">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A22,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A22, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="3" t="e" cm="1">
+        <f t="array" ref="K22">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="3" t="e" cm="1">
+        <f t="array" ref="L22">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A22,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A22, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="3" t="e" cm="1">
+        <f t="array" ref="O22">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="3" t="e" cm="1">
+        <f t="array" ref="P22">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A22) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A23,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A23, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>3.28</v>
       </c>
-      <c r="C23" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C23" s="3" cm="1">
+        <f t="array" ref="C23">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.8</v>
+      </c>
+      <c r="D23" s="3" cm="1">
+        <f t="array" ref="D23">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>1.0616025621672183</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F23" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A23,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A23, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>6.2</v>
       </c>
-      <c r="D23" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="G23" s="3" cm="1">
+        <f t="array" ref="G23">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>6.2</v>
+      </c>
+      <c r="H23" s="3" t="e" cm="1">
+        <f t="array" ref="H23">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A23,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A23, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
         <v>7.8428571428571425</v>
       </c>
-      <c r="E23" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A23,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A23, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="K23" s="3" cm="1">
+        <f t="array" ref="K23">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>7.9</v>
+      </c>
+      <c r="L23" s="3" cm="1">
+        <f t="array" ref="L23">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>0.7764387566686396</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857828E-2</v>
+      </c>
+      <c r="N23" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A23,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A23, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="e" cm="1">
+        <f t="array" ref="O23">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="3" t="e" cm="1">
+        <f t="array" ref="P23">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A23) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A24,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A24, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C24" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C24" s="3" t="e" cm="1">
+        <f t="array" ref="C24">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D24" s="3" t="e" cm="1">
+        <f t="array" ref="D24">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A24,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A24, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A24,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A24, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="3" t="e" cm="1">
+        <f t="array" ref="G24">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="3" t="e" cm="1">
+        <f t="array" ref="H24">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A24,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A24, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" s="3" t="e" cm="1">
+        <f t="array" ref="K24">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="3" t="e" cm="1">
+        <f t="array" ref="L24">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A24,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A24, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="3" t="e" cm="1">
+        <f t="array" ref="O24">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="3" t="e" cm="1">
+        <f t="array" ref="P24">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A24) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="3">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A25,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A25, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>2.5</v>
       </c>
-      <c r="C25" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C25" s="3" cm="1">
+        <f t="array" ref="C25">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="3" t="e" cm="1">
+        <f t="array" ref="D25">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A25,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A25, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A25,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A25, clean_data!D:D,"Hispanic")), NA())</f>
+      <c r="G25" s="3" t="e" cm="1">
+        <f t="array" ref="G25">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H25" s="3" t="e" cm="1">
+        <f t="array" ref="H25">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A25,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A25, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" s="3" t="e" cm="1">
+        <f t="array" ref="K25">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="3" t="e" cm="1">
+        <f t="array" ref="L25">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A25,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A25, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="3" t="e" cm="1">
+        <f t="array" ref="O25">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="3" t="e" cm="1">
+        <f t="array" ref="P25">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A25) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A26,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A26, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C26" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C26" s="3" t="e" cm="1">
+        <f t="array" ref="C26">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D26" s="3" t="e" cm="1">
+        <f t="array" ref="D26">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E26" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A26,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A26, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A26,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A26, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="3" t="e" cm="1">
+        <f t="array" ref="G26">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="3" t="e" cm="1">
+        <f t="array" ref="H26">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A26,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A26, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="3" t="e" cm="1">
+        <f t="array" ref="K26">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="3" t="e" cm="1">
+        <f t="array" ref="L26">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A26,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A26, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="3" t="e" cm="1">
+        <f t="array" ref="O26">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="3" t="e" cm="1">
+        <f t="array" ref="P26">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A26) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Asian and Pacific Islander") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Asian and Pacific Islander")), NA())</f>
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A27,'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A27, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Asian and Pacific Islander")), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"White Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"White Non-Hispanic")), NA())</f>
+      <c r="C27" s="3" t="e" cm="1">
+        <f t="array" ref="C27">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Black Non-Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Black Non-Hispanic")), NA())</f>
+      <c r="D27" s="3" t="e" cm="1">
+        <f t="array" ref="D27">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Asian and Pacific Islander"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E27" s="3" t="e">
-        <f>IFERROR((SUMIFS(clean_data!G:G,clean_data!B:B,'Aggregate Statistics'!A27,clean_data!D:D,"Hispanic") / COUNTIFS(clean_data!B:B, 'Aggregate Statistics'!A27, clean_data!D:D,"Hispanic")), NA())</f>
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A27,'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A27, 'DescriptiveStatistics-Min&amp;Max'!D:D,"White Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="3" t="e" cm="1">
+        <f t="array" ref="G27">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="3" t="e" cm="1">
+        <f t="array" ref="H27">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="White Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A27,'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A27, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Black Non-Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="3" t="e" cm="1">
+        <f t="array" ref="K27">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="3" t="e" cm="1">
+        <f t="array" ref="L27">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Black Non-Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="3" t="e">
+        <f>IFERROR((SUMIFS('DescriptiveStatistics-Min&amp;Max'!G:G,'DescriptiveStatistics-Min&amp;Max'!B:B,'AggregateStatistics-Mean&amp;Medium'!A27,'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic") / COUNTIFS('DescriptiveStatistics-Min&amp;Max'!B:B, 'AggregateStatistics-Mean&amp;Medium'!A27, 'DescriptiveStatistics-Min&amp;Max'!D:D,"Hispanic")), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="3" t="e" cm="1">
+        <f t="array" ref="O27">IFERROR(MEDIAN(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="3" t="e" cm="1">
+        <f t="array" ref="P27">IFERROR(_xlfn.STDEV.S(IF(('DescriptiveStatistics-Min&amp;Max'!B:B='AggregateStatistics-Mean&amp;Medium'!A27) * ('DescriptiveStatistics-Min&amp;Max'!D:D="Hispanic"), 'DescriptiveStatistics-Min&amp;Max'!G:G)), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="3" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39763,7 +44563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
